--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Documents\GitHub\VSS2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF10C72-C8AB-4A7B-8BC1-D37379F4AB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947436D-0A88-47D2-B05F-2E2FFB5C4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C49830DE-111F-476C-8B42-17B815050CB1}"/>
+    <workbookView xWindow="2920" yWindow="2920" windowWidth="14400" windowHeight="8170" xr2:uid="{C49830DE-111F-476C-8B42-17B815050CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>AM/KK/</t>
   </si>
   <si>
-    <t>AM/KK/1001</t>
-  </si>
-  <si>
     <t>*AM/KK/1001*</t>
   </si>
   <si>
@@ -341,10 +338,13 @@
     <t>AM/YV/</t>
   </si>
   <si>
-    <t>AM/YV/1002</t>
-  </si>
-  <si>
     <t>*AM/YV/1002*</t>
+  </si>
+  <si>
+    <t>AMKK1001</t>
+  </si>
+  <si>
+    <t>AMYV1002</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74762B2B-1FA1-4249-9813-E3484CCAB218}">
   <dimension ref="A1:BN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,10 +1057,10 @@
         <v>1001</v>
       </c>
       <c r="AQ2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
@@ -1159,31 +1159,31 @@
         <v>91</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK3" s="2" t="e">
         <v>#NAME?</v>
       </c>
       <c r="AL3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP3">
         <v>1002</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="21.5" x14ac:dyDescent="0.35">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Documents\GitHub\VSS2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947436D-0A88-47D2-B05F-2E2FFB5C4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3288CA-3ED9-4D08-B981-C4CEDEC28B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2920" windowWidth="14400" windowHeight="8170" xr2:uid="{C49830DE-111F-476C-8B42-17B815050CB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C49830DE-111F-476C-8B42-17B815050CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="255">
   <si>
     <t>vmallam1968@gmail.com</t>
   </si>
@@ -209,72 +209,6 @@
     <t>BarCode</t>
   </si>
   <si>
-    <t>Column 45</t>
-  </si>
-  <si>
-    <t>Column 46</t>
-  </si>
-  <si>
-    <t>Column 47</t>
-  </si>
-  <si>
-    <t>Column 48</t>
-  </si>
-  <si>
-    <t>Column 49</t>
-  </si>
-  <si>
-    <t>Column 50</t>
-  </si>
-  <si>
-    <t>Column 51</t>
-  </si>
-  <si>
-    <t>Column 52</t>
-  </si>
-  <si>
-    <t>Column 53</t>
-  </si>
-  <si>
-    <t>Column 54</t>
-  </si>
-  <si>
-    <t>Column 55</t>
-  </si>
-  <si>
-    <t>Column 56</t>
-  </si>
-  <si>
-    <t>Column 57</t>
-  </si>
-  <si>
-    <t>Column 58</t>
-  </si>
-  <si>
-    <t>Column 59</t>
-  </si>
-  <si>
-    <t>Column 60</t>
-  </si>
-  <si>
-    <t>Column 61</t>
-  </si>
-  <si>
-    <t>Column 62</t>
-  </si>
-  <si>
-    <t>Column 63</t>
-  </si>
-  <si>
-    <t>Column 64</t>
-  </si>
-  <si>
-    <t>Column 65</t>
-  </si>
-  <si>
-    <t>Column 66</t>
-  </si>
-  <si>
     <t>vmallampati2000@gmail.com</t>
   </si>
   <si>
@@ -323,49 +257,562 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>AM/KK/</t>
-  </si>
-  <si>
-    <t>*AM/KK/1001*</t>
-  </si>
-  <si>
     <t>Yuva</t>
   </si>
   <si>
     <t>3 Yuva</t>
   </si>
   <si>
-    <t>AM/YV/</t>
-  </si>
-  <si>
-    <t>*AM/YV/1002*</t>
-  </si>
-  <si>
     <t>AMKK1001</t>
   </si>
   <si>
-    <t>AMYV1002</t>
+    <t>hardish.trivedi@gmail.com</t>
+  </si>
+  <si>
+    <t>Hardish Divyanshubhai Trivedi</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Dar es Salaam</t>
+  </si>
+  <si>
+    <t>09879695977  8980002725</t>
+  </si>
+  <si>
+    <t>+919878695977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.tech Mechanical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business head </t>
+  </si>
+  <si>
+    <t>Divyanshubhai trivedi</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>09427759288</t>
+  </si>
+  <si>
+    <t>20 plus years</t>
+  </si>
+  <si>
+    <t>Sampark Pramukh -Tanzania</t>
+  </si>
+  <si>
+    <t>Hyderabad Airport (HYD)</t>
+  </si>
+  <si>
+    <t>Isha Hardish Trivedi</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>09408969488</t>
+  </si>
+  <si>
+    <t>MHRD</t>
+  </si>
+  <si>
+    <t>Homemaker</t>
+  </si>
+  <si>
+    <t>Kiritbhai pathak</t>
+  </si>
+  <si>
+    <t>09879633388</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>Bal Gokulam</t>
+  </si>
+  <si>
+    <t>No, varicose vains</t>
+  </si>
+  <si>
+    <t>riteshthakrar@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ritesh Thakrar</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>London, Harrow</t>
+  </si>
+  <si>
+    <t>+447542606456</t>
+  </si>
+  <si>
+    <t>LLB + LLM in Law</t>
+  </si>
+  <si>
+    <t>Solicitor (Lawyer)</t>
+  </si>
+  <si>
+    <t>Bina Thakrar</t>
+  </si>
+  <si>
+    <t>+447812673995</t>
+  </si>
+  <si>
+    <t>22 Years</t>
+  </si>
+  <si>
+    <t>Karyakarta Vikas Varg 1 OR Dwiteeya Varsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibhag Vyvestha / Vistaar Pramukh + National Hindu Students' Forum (UK) Strategic Advisor </t>
+  </si>
+  <si>
+    <t>Ulcerative Colitis</t>
+  </si>
+  <si>
+    <t>shaileshbshah@gmail.com</t>
+  </si>
+  <si>
+    <t>Shailesh Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar es Salaam </t>
+  </si>
+  <si>
+    <t>+255787543682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Engineer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General manager in Insurance Loss Adjusting firm </t>
+  </si>
+  <si>
+    <t>Harsha Shah</t>
+  </si>
+  <si>
+    <t>Wife</t>
+  </si>
+  <si>
+    <t>+91955079989</t>
+  </si>
+  <si>
+    <t>12 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desh Karyavah Tanzania and Treasurer Sewa Tanzania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will update later </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will update just given tentative schedule right now </t>
+  </si>
+  <si>
+    <t>Diabetic</t>
+  </si>
+  <si>
+    <t>bnv8135@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narender </t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auckland </t>
+  </si>
+  <si>
+    <t>+64224609779</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitality </t>
+  </si>
+  <si>
+    <t>Vijayender Boredha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brother </t>
+  </si>
+  <si>
+    <t>35yrs</t>
+  </si>
+  <si>
+    <t>Prathamik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyavastha Pramukh </t>
+  </si>
+  <si>
+    <t>My Home in Bagyanagar</t>
+  </si>
+  <si>
+    <t>sandeepkinge@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandeep Kinge</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>+918291598337</t>
+  </si>
+  <si>
+    <t>+9164221116522</t>
+  </si>
+  <si>
+    <t>MSc(Eng.) Environmental Engineering and Project Management</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Dr Surekha Supe</t>
+  </si>
+  <si>
+    <t>Mother in law</t>
+  </si>
+  <si>
+    <t>+919730879991</t>
+  </si>
+  <si>
+    <t>Shakha Karyavah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We would stay locally with a relative and reach the venue. </t>
+  </si>
+  <si>
+    <t>Kandakurthi</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>AMKK</t>
+  </si>
+  <si>
+    <t>*AMKK1001*</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>AFKK</t>
+  </si>
+  <si>
+    <t>AFKK1002</t>
+  </si>
+  <si>
+    <t>*AFKK1002*</t>
+  </si>
+  <si>
+    <t>AFKK1003</t>
+  </si>
+  <si>
+    <t>*AFKK1003*</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>EUYV</t>
+  </si>
+  <si>
+    <t>EUYV1004</t>
+  </si>
+  <si>
+    <t>*EUYV1004*</t>
+  </si>
+  <si>
+    <t>AFKK1005</t>
+  </si>
+  <si>
+    <t>*AFKK1005*</t>
+  </si>
+  <si>
+    <t>Australasia</t>
+  </si>
+  <si>
+    <t>AUKK</t>
+  </si>
+  <si>
+    <t>AUKK1006</t>
+  </si>
+  <si>
+    <t>*AUKK1006*</t>
+  </si>
+  <si>
+    <t>AUKK1007</t>
+  </si>
+  <si>
+    <t>*AUKK1007*</t>
+  </si>
+  <si>
+    <t>mrshsharma59@gmail.com</t>
+  </si>
+  <si>
+    <t>Mangat Ram Sharma</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>0045 60893770</t>
+  </si>
+  <si>
+    <t>bachelor degree - Commerce</t>
+  </si>
+  <si>
+    <t>Government JOB</t>
+  </si>
+  <si>
+    <t>Priyanka Asthana</t>
+  </si>
+  <si>
+    <t>Doughter</t>
+  </si>
+  <si>
+    <t>0061405785029</t>
+  </si>
+  <si>
+    <t>35 years</t>
+  </si>
+  <si>
+    <t>Sanghchalak - Denmark</t>
+  </si>
+  <si>
+    <t>EUKK</t>
+  </si>
+  <si>
+    <t>EUKK1013</t>
+  </si>
+  <si>
+    <t>*EUKK1013*</t>
+  </si>
+  <si>
+    <t>bharti.patel100@yahoo.com</t>
+  </si>
+  <si>
+    <t>Bharti Patel</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>+91 75674 60661</t>
+  </si>
+  <si>
+    <t>(+44) 744 638 1724</t>
+  </si>
+  <si>
+    <t>MSc</t>
+  </si>
+  <si>
+    <t>Snr Lecturer</t>
+  </si>
+  <si>
+    <t>Dilip Patel</t>
+  </si>
+  <si>
+    <t>Husband</t>
+  </si>
+  <si>
+    <t>(+44) 7545 061 582</t>
+  </si>
+  <si>
+    <t>25 + years</t>
+  </si>
+  <si>
+    <t>SB UK Samyojika</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>EUKK1014</t>
+  </si>
+  <si>
+    <t>*EUKK1014*</t>
+  </si>
+  <si>
+    <t>rganeshics@gmail.com</t>
+  </si>
+  <si>
+    <t>Gaurika Ganesh</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Jubail</t>
+  </si>
+  <si>
+    <t>4th Standard</t>
+  </si>
+  <si>
+    <t>Jalaja Indirabhai</t>
+  </si>
+  <si>
+    <t>9 years</t>
+  </si>
+  <si>
+    <t>Secunderabad Station (SC)</t>
+  </si>
+  <si>
+    <t>Sabari Express (17229)</t>
+  </si>
+  <si>
+    <t>Sabari Express (17230)</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Baal</t>
+  </si>
+  <si>
+    <t>1 Baal</t>
+  </si>
+  <si>
+    <t>ARBA</t>
+  </si>
+  <si>
+    <t>ARBA1024</t>
+  </si>
+  <si>
+    <t>*ARBA1024*</t>
+  </si>
+  <si>
+    <t>Swasthika Ganesh</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Kids size</t>
+  </si>
+  <si>
+    <t>ARBA1025</t>
+  </si>
+  <si>
+    <t>*ARBA1025*</t>
+  </si>
+  <si>
+    <t>udhamkataria@gmail.com</t>
+  </si>
+  <si>
+    <t>Udham Singh</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>+201006692057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chartered Accountant </t>
+  </si>
+  <si>
+    <t>Private Sector</t>
+  </si>
+  <si>
+    <t>Prashant Kataria</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>+91 97994 94551</t>
+  </si>
+  <si>
+    <t>33 years</t>
+  </si>
+  <si>
+    <t>Karyakarta Vikas Varg 2 OR Tritiya Varsh</t>
+  </si>
+  <si>
+    <t>Prant Karyavah</t>
+  </si>
+  <si>
+    <t>ARKK</t>
+  </si>
+  <si>
+    <t>ARKK1026</t>
+  </si>
+  <si>
+    <t>*ARKK1026*</t>
+  </si>
+  <si>
+    <t>chowdharydeepti@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepti Kataria </t>
+  </si>
+  <si>
+    <t>+20 127 2248800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private employment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spouse </t>
+  </si>
+  <si>
+    <t>00201006692057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 years </t>
+  </si>
+  <si>
+    <t>Mahila yoga</t>
+  </si>
+  <si>
+    <t>ARKK1027</t>
+  </si>
+  <si>
+    <t>*ARKK1027*</t>
+  </si>
+  <si>
+    <t>AMYV</t>
+  </si>
+  <si>
+    <t>AMYV2012</t>
+  </si>
+  <si>
+    <t>*AMYV2012*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,25 +841,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74762B2B-1FA1-4249-9813-E3484CCAB218}">
-  <dimension ref="A1:BN9"/>
+  <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,426 +1200,1683 @@
     <col min="44" max="44" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:47" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="1"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>45835.90748248843</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>57</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC1" s="5" t="s">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>9737378545</v>
+      </c>
+      <c r="I2">
+        <v>9737378545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>9737238262</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2">
+        <v>42</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP2">
+        <v>1001</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>45838.900706458335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="s">
         <v>67</v>
       </c>
-      <c r="BD1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="BF1" s="5" t="s">
+      <c r="AG3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>70</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="AK3" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
         <v>71</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="AN3" t="s">
         <v>72</v>
       </c>
-      <c r="BI1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45835.90748248843</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>57</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>9737378545</v>
-      </c>
-      <c r="I2" s="2">
-        <v>9737378545</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2">
-        <v>9737238262</v>
-      </c>
-      <c r="O2" s="2">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="2" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>1001</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-    </row>
-    <row r="3" spans="1:66" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45958.2856025</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="2">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="2">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" s="2" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>99</v>
+      <c r="AO3" t="s">
+        <v>157</v>
       </c>
       <c r="AP3">
         <v>1002</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>45838.904213622685</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4">
+        <v>44</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP4">
+        <v>1003</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>45838.907161898147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="AR3" s="4" t="s">
-        <v>100</v>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5">
+        <v>40</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP5">
+        <v>1004</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:66" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="AV9" s="4"/>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>45838.922464745367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6">
+        <v>46021</v>
+      </c>
+      <c r="Z6">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6">
+        <v>42</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP6">
+        <v>1005</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>45839.353422175926</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>9348342999</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7">
+        <v>9989424999</v>
+      </c>
+      <c r="O7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s">
+        <v>138</v>
+      </c>
+      <c r="V7" t="s">
+        <v>139</v>
+      </c>
+      <c r="X7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE7">
+        <v>44</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK7" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP7">
+        <v>1006</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>45839.392360694445</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N8" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8">
+        <v>46016</v>
+      </c>
+      <c r="U8">
+        <v>0.47916666666424135</v>
+      </c>
+      <c r="V8" t="s">
+        <v>151</v>
+      </c>
+      <c r="X8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8">
+        <v>46022</v>
+      </c>
+      <c r="Z8">
+        <v>0.41666666666424135</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE8">
+        <v>44</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP8">
+        <v>1007</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>45839.589137465278</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>9599969432</v>
+      </c>
+      <c r="I9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" t="s">
+        <v>185</v>
+      </c>
+      <c r="T9">
+        <v>46015</v>
+      </c>
+      <c r="V9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>46017</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9">
+        <v>40</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK9" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP9">
+        <v>1013</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>45839.617053935188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>200</v>
+      </c>
+      <c r="X10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP10">
+        <v>1014</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>45840.682146192128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11">
+        <v>9656766691</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11">
+        <v>9656766691</v>
+      </c>
+      <c r="O11" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11">
+        <v>46015</v>
+      </c>
+      <c r="U11">
+        <v>0.53125</v>
+      </c>
+      <c r="V11" t="s">
+        <v>211</v>
+      </c>
+      <c r="W11" t="s">
+        <v>212</v>
+      </c>
+      <c r="X11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>46022</v>
+      </c>
+      <c r="Z11">
+        <v>0.51388888889050577</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE11">
+        <v>30</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK11" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP11">
+        <v>1024</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>45840.687335937502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12">
+        <v>9656766691</v>
+      </c>
+      <c r="J12" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" t="s">
+        <v>209</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12">
+        <v>9656766691</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T12">
+        <v>46015</v>
+      </c>
+      <c r="U12">
+        <v>0.53125</v>
+      </c>
+      <c r="V12" t="s">
+        <v>211</v>
+      </c>
+      <c r="W12" t="s">
+        <v>212</v>
+      </c>
+      <c r="X12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>46022</v>
+      </c>
+      <c r="Z12">
+        <v>0.51388888889050577</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK12" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP12">
+        <v>1025</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>45840.963896712958</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>9950692057</v>
+      </c>
+      <c r="I13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" t="s">
+        <v>234</v>
+      </c>
+      <c r="O13" t="s">
+        <v>235</v>
+      </c>
+      <c r="P13" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13">
+        <v>44</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK13" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AP13">
+        <v>1026</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>45840.96615216435</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>9950692057</v>
+      </c>
+      <c r="I14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" t="s">
+        <v>245</v>
+      </c>
+      <c r="L14" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14" t="s">
+        <v>246</v>
+      </c>
+      <c r="N14" t="s">
+        <v>247</v>
+      </c>
+      <c r="O14" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK14" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>238</v>
+      </c>
+      <c r="AP14">
+        <v>1027</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>250</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>45958.2856025</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
+      <c r="X15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE15">
+        <v>44</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK15" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP15">
+        <v>2012</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>254</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
